--- a/charts.xlsx
+++ b/charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\King\Code\Absenteeism-at-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46EF053-89EB-4FE6-BCBD-260A7C9143EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181F4A72-8945-440F-9BDE-7E5C4B3B3B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day" sheetId="4" r:id="rId1"/>
@@ -19,14 +19,12 @@
     <sheet name="Season" sheetId="5" r:id="rId4"/>
     <sheet name="Mix" sheetId="6" r:id="rId5"/>
     <sheet name="Absenteeism" sheetId="7" r:id="rId6"/>
+    <sheet name="models" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v2.0" hidden="1">Absenteeism!$A$2:$A$10</definedName>
     <definedName name="_xlchart.v2.1" hidden="1">Absenteeism!$B$1</definedName>
     <definedName name="_xlchart.v2.2" hidden="1">Absenteeism!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Absenteeism!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Absenteeism!$B$1</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Absenteeism!$B$2:$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
   <si>
     <t>Reason for absence</t>
   </si>
@@ -204,12 +202,117 @@
   <si>
     <t>104 Hour</t>
   </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>LDA</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>CART</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>LinearDiscriminantAnalysis</t>
+  </si>
+  <si>
+    <t>XGBClassifier</t>
+  </si>
+  <si>
+    <t>GaussianNB</t>
+  </si>
+  <si>
+    <t>BaggingClassifier</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier</t>
+  </si>
+  <si>
+    <t>LGBMClassifier</t>
+  </si>
+  <si>
+    <t>AdaBoostClassifier</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>ExtraTreesClassifier</t>
+  </si>
+  <si>
+    <t>ExtraTreeClassifier</t>
+  </si>
+  <si>
+    <t>LabelPropagation</t>
+  </si>
+  <si>
+    <t>LabelSpreading</t>
+  </si>
+  <si>
+    <t>NearestCentroid</t>
+  </si>
+  <si>
+    <t>LinearSVC</t>
+  </si>
+  <si>
+    <t>BernoulliNB</t>
+  </si>
+  <si>
+    <t>LogisticRegression</t>
+  </si>
+  <si>
+    <t>SGDClassifier</t>
+  </si>
+  <si>
+    <t>CalibratedClassifierCV</t>
+  </si>
+  <si>
+    <t>SVC</t>
+  </si>
+  <si>
+    <t>PassiveAggressiveClassifier</t>
+  </si>
+  <si>
+    <t>RidgeClassifier</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier</t>
+  </si>
+  <si>
+    <t>RidgeClassifierCV</t>
+  </si>
+  <si>
+    <t>Perceptron</t>
+  </si>
+  <si>
+    <t>DummyClassifier</t>
+  </si>
+  <si>
+    <t>Balanced Accuracy</t>
+  </si>
+  <si>
+    <t>F1 Sore</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +325,13 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,10 +351,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -252,9 +363,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -290,7 +403,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -303,7 +416,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Top Days</a:t>
             </a:r>
           </a:p>
@@ -322,7 +435,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -565,6 +678,748 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Top 10/25 Model Accuracy Using AutoML</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" b="1">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>models!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>models!$A$11:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>LinearDiscriminantAnalysis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>XGBClassifier</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BaggingClassifier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DecisionTreeClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LGBMClassifier</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AdaBoostClassifier</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RandomForestClassifier</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ExtraTreesClassifier</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ExtraTreeClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>models!$B$11:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DB1-470F-A4A9-46100884A7CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>models!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balanced Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>models!$A$11:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>LinearDiscriminantAnalysis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>XGBClassifier</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BaggingClassifier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DecisionTreeClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LGBMClassifier</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AdaBoostClassifier</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RandomForestClassifier</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ExtraTreesClassifier</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ExtraTreeClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>models!$C$11:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6DB1-470F-A4A9-46100884A7CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>models!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1 Sore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>models!$A$11:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>LinearDiscriminantAnalysis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>XGBClassifier</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BaggingClassifier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DecisionTreeClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LGBMClassifier</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AdaBoostClassifier</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RandomForestClassifier</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ExtraTreesClassifier</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ExtraTreeClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>models!$D$11:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6DB1-470F-A4A9-46100884A7CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1027247055"/>
+        <c:axId val="1030216959"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1027247055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030216959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1030216959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1027247055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1832,6 +2687,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1842755248"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
@@ -1879,6 +2735,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1842755664"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2581,6 +3438,1355 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Model Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>models!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>models!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LDA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>models!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D944-410A-AFD4-9424C3CFDB4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1444299903"/>
+        <c:axId val="1444300735"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1444299903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1444300735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1444300735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1444299903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Model Accuracy Using AutoML</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>models!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>models!$A$11:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>LinearDiscriminantAnalysis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>XGBClassifier</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BaggingClassifier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DecisionTreeClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LGBMClassifier</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AdaBoostClassifier</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RandomForestClassifier</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ExtraTreesClassifier</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ExtraTreeClassifier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>LabelPropagation</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LabelSpreading</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>NearestCentroid</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>LinearSVC</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>BernoulliNB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LogisticRegression</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SGDClassifier</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CalibratedClassifierCV</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>SVC</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>PassiveAggressiveClassifier</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>RidgeClassifier</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>KNeighborsClassifier</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>RidgeClassifierCV</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>DummyClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>models!$B$11:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D72E-44E3-909B-B90726D5FA43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>models!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balanced Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>models!$A$11:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>LinearDiscriminantAnalysis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>XGBClassifier</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BaggingClassifier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DecisionTreeClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LGBMClassifier</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AdaBoostClassifier</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RandomForestClassifier</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ExtraTreesClassifier</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ExtraTreeClassifier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>LabelPropagation</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LabelSpreading</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>NearestCentroid</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>LinearSVC</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>BernoulliNB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LogisticRegression</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SGDClassifier</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CalibratedClassifierCV</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>SVC</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>PassiveAggressiveClassifier</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>RidgeClassifier</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>KNeighborsClassifier</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>RidgeClassifierCV</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>DummyClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>models!$C$11:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D72E-44E3-909B-B90726D5FA43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>models!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1 Sore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>models!$A$11:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>LinearDiscriminantAnalysis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>XGBClassifier</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BaggingClassifier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DecisionTreeClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LGBMClassifier</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AdaBoostClassifier</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RandomForestClassifier</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ExtraTreesClassifier</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ExtraTreeClassifier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>LabelPropagation</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LabelSpreading</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>NearestCentroid</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>LinearSVC</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>BernoulliNB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LogisticRegression</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SGDClassifier</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CalibratedClassifierCV</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>SVC</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>PassiveAggressiveClassifier</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>RidgeClassifier</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>KNeighborsClassifier</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>RidgeClassifierCV</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>DummyClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>models!$D$11:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D72E-44E3-909B-B90726D5FA43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="233672431"/>
+        <c:axId val="233672847"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="233672431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233672847"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="233672847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="233672431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -2610,10 +4816,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
+            <a:defRPr b="1"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -2642,7 +4848,7 @@
           <cx:dataId val="0"/>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="1">
+      <cx:axis id="0">
         <cx:catScaling gapWidth="0.0599999987"/>
         <cx:tickLabels/>
       </cx:axis>
@@ -2659,6 +4865,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2978,6 +5264,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -3483,8 +5809,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3592,6 +5918,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3602,6 +5933,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3633,6 +5969,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3986,8 +6325,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4095,6 +6434,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4105,6 +6449,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4136,6 +6485,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4191,23 +6543,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4312,8 +6663,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4445,20 +6796,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4491,8 +6841,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4696,23 +7046,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4817,8 +7166,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4950,20 +7299,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4996,8 +7344,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5054,7 +7402,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5105,13 +7453,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5122,19 +7463,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5172,7 +7506,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5515,7 +7849,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6020,8 +8354,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6078,7 +8412,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6129,6 +8463,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6139,12 +8480,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6182,7 +8530,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6525,6 +8873,1016 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
   <cs:axisTitle>
@@ -7029,6 +10387,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -7393,6 +11254,119 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51814707-4E83-494D-B992-D8AB029188E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52B37D5-A437-46F7-A22E-83F815B60BB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB2F17C7-DC6F-408A-8D3D-2F63139FF9AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7843,7 +11817,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8354,10 +12328,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7AFAF2-9985-447E-8351-4FB18A04D7CD}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8431,6 +12405,22 @@
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
+      <c r="E4">
+        <f>SUM(E2:E3)</f>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="5">
+        <f>E2/$E$4</f>
+        <v>0.56756756756756754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
+        <f>E3/$E$4</f>
+        <v>0.43243243243243246</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
@@ -8441,6 +12431,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
+        <f>E12/$E$14</f>
+        <v>0.927027027027027</v>
+      </c>
       <c r="D12" t="s">
         <v>29</v>
       </c>
@@ -8449,6 +12443,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
+        <f>E13/$E$14</f>
+        <v>7.2972972972972977E-2</v>
+      </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
@@ -8456,7 +12454,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f>SUM(E12:E13)</f>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>34</v>
       </c>
@@ -8464,7 +12468,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="5">
+        <f>E20/$E$14</f>
+        <v>0.81351351351351353</v>
+      </c>
       <c r="D20" t="s">
         <v>29</v>
       </c>
@@ -8472,12 +12480,22 @@
         <v>602</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="5">
+        <f>E21/$E$14</f>
+        <v>0.1864864864864865</v>
+      </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="2">
         <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <f>SUM(E20:E21)</f>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -8491,7 +12509,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8660,4 +12678,447 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E5191E-50D9-4FA9-AEA0-2166D16DBF87}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="C35" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>